--- a/jwang/case/ieee39.xlsx
+++ b/jwang/case/ieee39.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xfang\gitrepos\andes\andes\cases\ieee39\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA41D8D-E5BB-1646-B42D-5B74812F1D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9C14D-B88C-4A26-AC55-22AEA8C87DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22060" yWindow="1380" windowWidth="21720" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="252" windowWidth="21180" windowHeight="11712" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Line" sheetId="6" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GENROU" sheetId="8" r:id="rId8"/>
-    <sheet name="TGOV1NDB" sheetId="9" r:id="rId9"/>
+    <sheet name="TGOV1N" sheetId="9" r:id="rId9"/>
     <sheet name="IEEEX1" sheetId="10" r:id="rId10"/>
     <sheet name="IEEEST" sheetId="11" r:id="rId11"/>
     <sheet name="BusFreq" sheetId="12" r:id="rId12"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="269">
   <si>
     <t>idx</t>
   </si>
@@ -851,42 +851,6 @@
   </si>
   <si>
     <t>GENROU</t>
-  </si>
-  <si>
-    <t>dbL</t>
-  </si>
-  <si>
-    <t>dbU</t>
-  </si>
-  <si>
-    <t>PV_1</t>
-  </si>
-  <si>
-    <t>PV_2</t>
-  </si>
-  <si>
-    <t>PV_3</t>
-  </si>
-  <si>
-    <t>PV_4</t>
-  </si>
-  <si>
-    <t>PV_5</t>
-  </si>
-  <si>
-    <t>PV_6</t>
-  </si>
-  <si>
-    <t>PV_7</t>
-  </si>
-  <si>
-    <t>PV_8</t>
-  </si>
-  <si>
-    <t>PV_9</t>
-  </si>
-  <si>
-    <t>Slack_10</t>
   </si>
 </sst>
 </file>
@@ -930,7 +894,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -953,31 +917,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,12 +1271,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1414,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1458,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1502,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1546,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1590,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1634,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1678,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1722,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1766,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1810,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1854,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1898,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1942,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1986,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2030,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2074,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2118,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2162,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2206,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2250,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2294,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2338,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2382,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2426,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2470,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2514,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2558,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2602,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2646,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2690,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2734,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2778,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2822,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2866,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2910,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2954,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2998,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3042,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3100,9 +3050,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3114,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3226,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3288,7 +3238,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3350,7 +3300,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3412,7 +3362,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3474,7 +3424,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3536,7 +3486,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3598,7 +3548,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3660,7 +3610,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3722,7 +3672,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3798,9 +3748,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3827,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3951,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4025,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4099,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4173,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4247,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4321,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4395,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4469,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4543,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4631,12 +4581,12 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4662,7 +4612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4688,7 +4638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4714,7 +4664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4740,7 +4690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4766,7 +4716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4792,7 +4742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4818,7 +4768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4844,7 +4794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4870,7 +4820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4896,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4935,9 +4885,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4960,7 +4910,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4992,13 +4942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4777E0E0-7471-47D8-8165-DDE9FB38FB92}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5021,7 +4971,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5053,14 +5003,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5095,7 +5045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5115,10 +5065,10 @@
         <v>345</v>
       </c>
       <c r="G2">
-        <v>4.8000000000000007</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>1.2</v>
@@ -5130,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5150,10 +5100,10 @@
         <v>345</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
-        <v>1.4720000000000002</v>
+        <v>1.84</v>
       </c>
       <c r="I3">
         <v>1.2</v>
@@ -5165,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5185,10 +5135,10 @@
         <v>345</v>
       </c>
       <c r="G4">
-        <v>1.8704000000000001</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="H4">
-        <v>0.67200000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
         <v>1.2</v>
@@ -5200,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5220,10 +5170,10 @@
         <v>345</v>
       </c>
       <c r="G5">
-        <v>4.1760000000000002</v>
+        <v>5.22</v>
       </c>
       <c r="H5">
-        <v>1.4128000000000001</v>
+        <v>1.766</v>
       </c>
       <c r="I5">
         <v>1.2</v>
@@ -5235,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5255,10 +5205,10 @@
         <v>138</v>
       </c>
       <c r="G6">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I6">
         <v>1.2</v>
@@ -5270,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5290,10 +5240,10 @@
         <v>345</v>
       </c>
       <c r="G7">
-        <v>2.5600000000000005</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>1.2240000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
         <v>1.2</v>
@@ -5305,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5325,10 +5275,10 @@
         <v>345</v>
       </c>
       <c r="G8">
-        <v>2.6320000000000001</v>
+        <v>3.29</v>
       </c>
       <c r="H8">
-        <v>0.25839999999999996</v>
+        <v>0.32299999999999995</v>
       </c>
       <c r="I8">
         <v>1.2</v>
@@ -5340,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5360,10 +5310,10 @@
         <v>345</v>
       </c>
       <c r="G9">
-        <v>1.2640000000000002</v>
+        <v>1.58</v>
       </c>
       <c r="H9">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I9">
         <v>1.2</v>
@@ -5375,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5395,10 +5345,10 @@
         <v>138</v>
       </c>
       <c r="G10">
-        <v>5.44</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>0.82400000000000007</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
         <v>1.2</v>
@@ -5410,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5430,10 +5380,10 @@
         <v>345</v>
       </c>
       <c r="G11">
-        <v>2.1920000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="H11">
-        <v>0.91999999999999993</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I11">
         <v>1.2</v>
@@ -5445,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5465,10 +5415,10 @@
         <v>345</v>
       </c>
       <c r="G12">
-        <v>1.9800000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H12">
-        <v>0.67680000000000007</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="I12">
         <v>1.2</v>
@@ -5480,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5500,10 +5450,10 @@
         <v>345</v>
       </c>
       <c r="G13">
-        <v>2.4688000000000003</v>
+        <v>3.0860000000000003</v>
       </c>
       <c r="H13">
-        <v>-0.73760000000000003</v>
+        <v>-0.92200000000000004</v>
       </c>
       <c r="I13">
         <v>1.2</v>
@@ -5515,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5535,10 +5485,10 @@
         <v>345</v>
       </c>
       <c r="G14">
-        <v>1.7920000000000003</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H14">
-        <v>0.37760000000000005</v>
+        <v>0.47200000000000003</v>
       </c>
       <c r="I14">
         <v>1.2</v>
@@ -5550,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5570,10 +5520,10 @@
         <v>345</v>
       </c>
       <c r="G15">
-        <v>1.1119999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="H15">
-        <v>0.13600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I15">
         <v>1.2</v>
@@ -5585,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5605,10 +5555,10 @@
         <v>345</v>
       </c>
       <c r="G16">
-        <v>2.2480000000000002</v>
+        <v>2.81</v>
       </c>
       <c r="H16">
-        <v>0.60400000000000009</v>
+        <v>0.755</v>
       </c>
       <c r="I16">
         <v>1.2</v>
@@ -5620,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5640,10 +5590,10 @@
         <v>345</v>
       </c>
       <c r="G17">
-        <v>1.6480000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="H17">
-        <v>0.22080000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I17">
         <v>1.2</v>
@@ -5655,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5675,10 +5625,10 @@
         <v>345</v>
       </c>
       <c r="G18">
-        <v>2.2680000000000002</v>
+        <v>2.835</v>
       </c>
       <c r="H18">
-        <v>1.0152000000000001</v>
+        <v>1.2690000000000001</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -5690,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5710,10 +5660,10 @@
         <v>34.5</v>
       </c>
       <c r="G19">
-        <v>0.64000000000000012</v>
+        <v>0.8</v>
       </c>
       <c r="H19">
-        <v>0.32000000000000006</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
         <v>1.2</v>
@@ -5725,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5745,10 +5695,10 @@
         <v>345</v>
       </c>
       <c r="G20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
         <v>1.2</v>
@@ -5768,19 +5718,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:J10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5839,18 +5789,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>271</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>271</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1040</v>
@@ -5895,18 +5845,18 @@
         <v>7.92E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>272</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>272</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>836</v>
@@ -5951,18 +5901,18 @@
         <v>0.29779</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>273</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>273</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4">
         <v>843.7</v>
@@ -6007,18 +5957,18 @@
         <v>2.5659999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>274</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>274</v>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1174.8</v>
@@ -6063,18 +6013,18 @@
         <v>8.0300000000000007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>275</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>275</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1080.2</v>
@@ -6119,18 +6069,18 @@
         <v>5.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>276</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
+      <c r="D7">
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1085.7</v>
@@ -6175,18 +6125,18 @@
         <v>0.46538000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>277</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>277</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8">
         <v>1025.2</v>
@@ -6231,18 +6181,18 @@
         <v>2.1409999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>278</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>278</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9">
         <v>970.2</v>
@@ -6287,18 +6237,18 @@
         <v>6.0760000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>279</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>279</v>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10">
         <v>1684.1</v>
@@ -6343,56 +6293,67 @@
         <v>1.174E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6404,12 +6365,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6471,18 +6432,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>280</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>280</v>
+      <c r="D2">
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1199</v>
@@ -6544,9 +6505,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6578,7 +6539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6610,7 +6571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6656,9 +6617,9 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6732,7 +6693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6797,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6862,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6927,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6992,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7057,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7122,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7187,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7252,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7317,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7382,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7447,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7512,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7577,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7642,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7707,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7772,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7837,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7902,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7967,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8032,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8097,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8162,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8227,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8292,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8357,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8422,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8487,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8552,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8617,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8682,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8747,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8812,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8877,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8942,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9007,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9072,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9137,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9202,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9267,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9332,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9397,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9462,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9527,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9592,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9657,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9736,9 +9697,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9752,7 +9713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9766,7 +9727,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9791,16 +9752,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9886,7 +9846,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9902,8 +9862,8 @@
       <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>271</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1040</v>
@@ -9969,7 +9929,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9985,8 +9945,8 @@
       <c r="E3">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>272</v>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="H3">
         <v>836</v>
@@ -10052,7 +10012,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10068,8 +10028,8 @@
       <c r="E4">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
-        <v>273</v>
+      <c r="F4">
+        <v>3</v>
       </c>
       <c r="H4">
         <v>843.7</v>
@@ -10135,7 +10095,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10151,8 +10111,8 @@
       <c r="E5">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>274</v>
+      <c r="F5">
+        <v>4</v>
       </c>
       <c r="H5">
         <v>1174.8</v>
@@ -10218,7 +10178,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10234,8 +10194,8 @@
       <c r="E6">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>275</v>
+      <c r="F6">
+        <v>5</v>
       </c>
       <c r="H6">
         <v>1080.2</v>
@@ -10301,7 +10261,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10317,8 +10277,8 @@
       <c r="E7">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>276</v>
+      <c r="F7">
+        <v>6</v>
       </c>
       <c r="H7">
         <v>1085.7</v>
@@ -10384,7 +10344,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10400,8 +10360,8 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>277</v>
+      <c r="F8">
+        <v>7</v>
       </c>
       <c r="H8">
         <v>1025.2</v>
@@ -10467,7 +10427,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10483,8 +10443,8 @@
       <c r="E9">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>278</v>
+      <c r="F9">
+        <v>8</v>
       </c>
       <c r="H9">
         <v>970.2</v>
@@ -10550,7 +10510,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10566,8 +10526,8 @@
       <c r="E10">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>279</v>
+      <c r="F10">
+        <v>9</v>
       </c>
       <c r="H10">
         <v>1684.1</v>
@@ -10633,7 +10593,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10649,8 +10609,8 @@
       <c r="E11">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>280</v>
+      <c r="F11">
+        <v>10</v>
       </c>
       <c r="H11">
         <v>1199</v>
@@ -10717,23 +10677,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10776,14 +10735,8 @@
       <c r="N1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10823,14 +10776,8 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P2">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10870,14 +10817,8 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P3">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10917,14 +10858,8 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P4">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10964,14 +10899,8 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P5">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11011,14 +10940,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P6">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11058,14 +10981,8 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P7">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11105,14 +11022,8 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P8">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11152,14 +11063,8 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P9">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11199,14 +11104,8 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P10">
-        <v>3.3E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11245,12 +11144,6 @@
       </c>
       <c r="N11">
         <v>0</v>
-      </c>
-      <c r="O11">
-        <v>-3.3E-4</v>
-      </c>
-      <c r="P11">
-        <v>3.3E-4</v>
       </c>
     </row>
   </sheetData>

--- a/jwang/case/ieee39.xlsx
+++ b/jwang/case/ieee39.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xfang\gitrepos\andes\andes\cases\ieee39\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9C14D-B88C-4A26-AC55-22AEA8C87DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22DA6A-2124-F440-A1EF-8FF446F92998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="252" windowWidth="21180" windowHeight="11712" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1274,9 +1274,9 @@
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3050,9 +3050,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3748,9 +3748,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4581,12 +4581,12 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4885,9 +4885,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4942,13 +4942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4777E0E0-7471-47D8-8165-DDE9FB38FB92}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5008,9 +5008,9 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5722,15 +5722,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>7.92E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0.29779</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>2.5659999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>8.0300000000000007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>5.7099999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0.46538000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>2.1409999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>6.0760000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6293,64 +6293,64 @@
         <v>1.174E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
     </row>
   </sheetData>
@@ -6365,12 +6365,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6505,9 +6505,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6617,9 +6617,9 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9697,9 +9697,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9755,12 +9755,12 @@
       <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10685,14 +10685,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>

--- a/jwang/case/ieee39.xlsx
+++ b/jwang/case/ieee39.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22DA6A-2124-F440-A1EF-8FF446F92998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403D7F7-46C7-5E48-A375-565D35B5908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -5722,7 +5722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L10"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6363,9 +6363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L2"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10685,7 +10685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
